--- a/docs/StructureDefinition-us-core-problems-and-health-concerns.xlsx
+++ b/docs/StructureDefinition-us-core-problems-and-health-concerns.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="356">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>UsCoreProblemsHealthConcerns</t>
+    <t>USCoreProblemsHealthConcerns</t>
   </si>
   <si>
     <t>Title</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03</t>
+    <t>2022-03-17</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The US Core Problems and Health Concerns Profile is based upon the core FHIR Condition Resource and meets the  U.S. Core Data for Interoperability (USCDI) v2 'Problems' and 'Health Concerns' requirements.  It defines constraints and extensions on the Condition resource for the minimal set of data to record, search, and fetch information about a condition, diagnosis, or other event, situation, issue, or clinical concept that is documented and categorized as a problem or health concern.</t>
+    <t>The US Core Problems and Health Concerns Profile is based upon the core FHIR Condition Resource and meets the  U.S. Core Data for Interoperability (USCDI) v2 'Problems' and 'Health Concerns' requirements and SDOH 'Problems/Health Concerns' requirements.  It defines constraints and extensions on the Condition resource for the minimal set of data to record, search, and fetch information about a condition, diagnosis, or other event, situation, issue, or clinical concept that is documented and categorized as a problem or health concern including information about a Social Determinants of Health-related condition.fhirVersion: 4.0.1</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/healthedata1-sandbox/StructureDefinition/us-core-condition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -255,7 +255,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Detailed information about Problems or Health Concerns</t>
+    <t>Detailed information about conditions, problems or diagnoses</t>
+  </si>
+  <si>
+    <t>The US Core Problems and Health Concerns Profile is based upon the core FHIR Condition Resource and meets the  U.S. Core Data for Interoperability (USCDI) v2 'Problems' and 'Health Concerns' requirements and SDOH 'Problems/Health Concerns' requirements.  It defines constraints and extensions on the Condition resource for the minimal set of data to record, search, and fetch information about a condition, diagnosis, or other event, situation, issue, or clinical concept that is documented and categorized as a problem or health concern including information about a Social Determinants of Health-related condition.</t>
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
@@ -636,6 +639,20 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/ValueSet/problem-or-health-concern</t>
+  </si>
+  <si>
+    <t>sdoh</t>
+  </si>
+  <si>
+    <t>problem-list-item | encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LG41762-2"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Condition.severity</t>
@@ -1438,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1646,7 +1663,7 @@
         <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1709,19 +1726,19 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>76</v>
@@ -1732,7 +1749,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1743,7 +1760,7 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>76</v>
@@ -1752,19 +1769,19 @@
         <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1814,13 +1831,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1849,7 +1866,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1860,7 +1877,7 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -1869,16 +1886,16 @@
         <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1929,19 +1946,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1964,7 +1981,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1975,28 +1992,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2046,19 +2063,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2081,7 +2098,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2092,7 +2109,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2104,16 +2121,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2139,13 +2156,13 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>76</v>
@@ -2163,19 +2180,19 @@
         <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2198,18 +2215,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2221,16 +2238,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2280,19 +2297,19 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>76</v>
@@ -2304,7 +2321,7 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>76</v>
@@ -2315,11 +2332,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2338,16 +2355,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2397,7 +2414,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2421,7 +2438,7 @@
         <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>76</v>
@@ -2432,7 +2449,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2455,13 +2472,13 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2500,17 +2517,17 @@
         <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2522,7 +2539,7 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
@@ -2545,10 +2562,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>76</v>
@@ -2558,10 +2575,10 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2570,16 +2587,16 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2629,7 +2646,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2638,10 +2655,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
@@ -2664,11 +2681,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2681,25 +2698,25 @@
         <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2748,7 +2765,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2760,7 +2777,7 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>76</v>
@@ -2772,7 +2789,7 @@
         <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>76</v>
@@ -2783,7 +2800,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2803,22 +2820,22 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -2867,7 +2884,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -2879,10 +2896,10 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2891,10 +2908,10 @@
         <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>76</v>
@@ -2902,7 +2919,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2913,28 +2930,28 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2960,11 +2977,11 @@
         <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>76</v>
@@ -2982,34 +2999,34 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>76</v>
@@ -3017,7 +3034,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3028,28 +3045,28 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3075,11 +3092,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3097,42 +3114,42 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3140,13 +3157,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3155,16 +3172,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3190,29 +3207,29 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3221,25 +3238,25 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3247,23 +3264,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3272,16 +3289,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3307,11 +3324,11 @@
         <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>76</v>
@@ -3329,7 +3346,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3341,32 +3358,34 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3375,10 +3394,10 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3387,16 +3406,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3407,7 +3426,7 @@
         <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>76</v>
@@ -3422,100 +3441,100 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3539,13 +3558,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3563,76 +3582,76 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3656,100 +3675,100 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3773,13 +3792,13 @@
         <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>76</v>
@@ -3797,76 +3816,76 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3914,42 +3933,42 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3960,28 +3979,28 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4031,34 +4050,34 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4066,7 +4085,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4077,28 +4096,28 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4148,34 +4167,34 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4183,7 +4202,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4194,27 +4213,29 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -4263,19 +4284,19 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -4284,21 +4305,21 @@
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4309,25 +4330,25 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4378,19 +4399,19 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -4399,13 +4420,13 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>76</v>
@@ -4413,7 +4434,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4424,7 +4445,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4433,16 +4454,16 @@
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4493,19 +4514,19 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4514,13 +4535,13 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>76</v>
@@ -4528,7 +4549,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4539,7 +4560,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4548,16 +4569,16 @@
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4608,19 +4629,19 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4629,13 +4650,13 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -4643,7 +4664,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4654,7 +4675,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4666,13 +4687,13 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4723,31 +4744,31 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4758,18 +4779,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4781,17 +4802,15 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4840,31 +4859,31 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4879,7 +4898,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4892,26 +4911,24 @@
         <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N30" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4959,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4971,7 +4988,7 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -4983,7 +5000,7 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -4994,30 +5011,30 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>306</v>
@@ -5025,8 +5042,12 @@
       <c r="L31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5050,55 +5071,55 @@
         <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -5109,7 +5130,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5120,7 +5141,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5132,13 +5153,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5165,13 +5186,13 @@
         <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>76</v>
@@ -5189,31 +5210,31 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5224,7 +5245,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5235,7 +5256,7 @@
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
@@ -5247,7 +5268,7 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>161</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>318</v>
@@ -5280,55 +5301,55 @@
         <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5339,7 +5360,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5350,7 +5371,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5362,17 +5383,15 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5397,13 +5416,13 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
@@ -5421,19 +5440,19 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5464,7 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
@@ -5456,7 +5475,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5467,7 +5486,7 @@
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>76</v>
@@ -5479,15 +5498,17 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5536,19 +5557,19 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
@@ -5560,7 +5581,7 @@
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5571,18 +5592,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5594,17 +5615,15 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5653,31 +5672,31 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5688,11 +5707,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5705,26 +5724,24 @@
         <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N37" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5784,7 +5801,7 @@
         <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>76</v>
@@ -5796,7 +5813,7 @@
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5807,11 +5824,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5824,22 +5841,26 @@
         <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5863,13 +5884,13 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -5887,7 +5908,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5896,25 +5917,25 @@
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -5922,7 +5943,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5942,16 +5963,16 @@
         <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5978,13 +5999,13 @@
         <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>76</v>
@@ -6002,7 +6023,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6011,25 +6032,25 @@
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6057,7 +6078,7 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>346</v>
@@ -6126,32 +6147,147 @@
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="K41" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AN40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AO40" t="s" s="2">
+      <c r="L41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO40">
+  <autoFilter ref="A1:AO41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6161,7 +6297,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
